--- a/Documentacion/Fase de elaboracion/Semana 7/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de elaboracion/Semana 7/Gestion de proyecto/GPRACG2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" tabRatio="750" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="Gráfica esfuerzo por rol" sheetId="16" r:id="rId15"/>
     <sheet name="Gráfica esfuerzo por área" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="195">
   <si>
     <t>Javier Madeiro</t>
   </si>
@@ -241,18 +241,12 @@
     <t>V5</t>
   </si>
   <si>
-    <t>Revision Entregas</t>
-  </si>
-  <si>
     <t>20/09/2010</t>
   </si>
   <si>
     <t>V2</t>
   </si>
   <si>
-    <t>Realizacion de los casos de prueba para la proxima Iteración</t>
-  </si>
-  <si>
     <t>21/09/2010</t>
   </si>
   <si>
@@ -283,18 +277,12 @@
     <t>24/09/2010</t>
   </si>
   <si>
-    <t>Verificacion de documentación</t>
-  </si>
-  <si>
     <t>Se verifico la documentación de acuerdo al Plan de Verificación de la Iteración</t>
   </si>
   <si>
     <t>V1</t>
   </si>
   <si>
-    <t>Realizacion Informes</t>
-  </si>
-  <si>
     <t>Informe de Verificación de documento e Informe Evaluación de la Verificación</t>
   </si>
   <si>
@@ -310,9 +298,6 @@
     <t>Implementación</t>
   </si>
   <si>
-    <t>Se trabajo sobre el caso de uso ArmarJuego, y se definio la arquitectura de package del lado del server</t>
-  </si>
-  <si>
     <t>21/9/2010</t>
   </si>
   <si>
@@ -343,9 +328,6 @@
     <t>24/9/2010</t>
   </si>
   <si>
-    <t>Se trabajo sobre el caso de uso ArmarJuego</t>
-  </si>
-  <si>
     <t xml:space="preserve">R3 </t>
   </si>
   <si>
@@ -358,51 +340,18 @@
     <t>25/9/2010</t>
   </si>
   <si>
-    <t>Implementación de CU e itegración con Facebook y WP7</t>
-  </si>
-  <si>
     <t>Implementación de CU e integración con Facebook y WP7</t>
   </si>
   <si>
-    <t>Implementacion mejora de la parte de facebook</t>
-  </si>
-  <si>
     <t>23/9/2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Integracion </t>
-  </si>
-  <si>
     <t>I1</t>
   </si>
   <si>
-    <t>Parser de noticias traidas por bing</t>
-  </si>
-  <si>
-    <t>Se pudo abrir una pagina a partir de la url devuelta por bing y se comenzo a buscar una expresion regular que realice la busqueda dentro de la página</t>
-  </si>
-  <si>
-    <t>Prueba y correcciones sobre la expresion regular</t>
-  </si>
-  <si>
-    <t>Robustecimiento del metodo que realiza la busqueda para que reciba un recibe en cualquier formato. Se corrigieron errores en la busqueda</t>
-  </si>
-  <si>
-    <t>Se probó la busqueda, se realizaron mejoras y correciones. Agregado soporte para busquedas que devuelven resultados con culquier codificación de caracteres ie: utf-8, iso-8859-1, etc.</t>
-  </si>
-  <si>
-    <t>Implemtantación</t>
-  </si>
-  <si>
     <t>Trabajo local con la base de datos</t>
   </si>
   <si>
-    <t>implementacion de servicios e integracion</t>
-  </si>
-  <si>
-    <t>Trabaje junto con martin en la implementacion de algunos servicios, y luego se realizo integracion con facebook</t>
-  </si>
-  <si>
     <t>19/9/2010</t>
   </si>
   <si>
@@ -463,9 +412,6 @@
     <t>UI</t>
   </si>
   <si>
-    <t>Modificaciones e inserciones de nuevas imagenes editadas a restantes pantallas</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -481,18 +427,12 @@
     <t>UI pantalla sospechos</t>
   </si>
   <si>
-    <t xml:space="preserve">Inserción de los combobox en el wp7 + investigacion de nuevas animaciones </t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
     <t>Registro de horas</t>
   </si>
   <si>
-    <t>Registro de horas, fin doc estimación, seguimiento de proyecto, plan de iteración.</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
@@ -508,9 +448,6 @@
     <t>Reuniones de apoyo</t>
   </si>
   <si>
-    <t>Reunión con javier</t>
-  </si>
-  <si>
     <t>RTF de documento de requerimientos</t>
   </si>
   <si>
@@ -526,9 +463,6 @@
     <t>Reuniones informales con implementadores</t>
   </si>
   <si>
-    <t>Investigación sobre cómo abrir un browser con una url dada en el Windows Phone</t>
-  </si>
-  <si>
     <t>Comenzamos con el Login, realizamos pruebas con el prototipo. Sólo resta cerrar el browser.</t>
   </si>
   <si>
@@ -556,9 +490,6 @@
     <t>Reunión revisión de casos de uso</t>
   </si>
   <si>
-    <t>Descripcion arquitectura</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -577,12 +508,6 @@
     <t>Modelo de implementación</t>
   </si>
   <si>
-    <t>Rework de bug en la nube con la logica de facebook y la base de datos</t>
-  </si>
-  <si>
-    <t>Se sigui trabajndo sobre la arquitectura del servidor y con el caso de uso anterior. Ademas de cargar datos de la base</t>
-  </si>
-  <si>
     <t>Auto Estudio</t>
   </si>
   <si>
@@ -620,6 +545,75 @@
   </si>
   <si>
     <t>Implementando la lógica de traer los amigos de Facebook y guardarlos en la base. También se probó la lógica del StartGame, y al momento de partir aún no anda.</t>
+  </si>
+  <si>
+    <t>Realización de los casos de prueba para la próxima Iteración</t>
+  </si>
+  <si>
+    <t>Verificación de documentación</t>
+  </si>
+  <si>
+    <t>Realización Informes</t>
+  </si>
+  <si>
+    <t>Revisión Entregas</t>
+  </si>
+  <si>
+    <t>Alejandro García</t>
+  </si>
+  <si>
+    <t>Se trabajo sobre el caso de uso Armar Juego</t>
+  </si>
+  <si>
+    <t>Se trabajo sobre el caso de uso Armar Juego, y se definió la arquitectura de package del lado del server</t>
+  </si>
+  <si>
+    <t>Implementación mejora de la parte de Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integración </t>
+  </si>
+  <si>
+    <t>Parser de noticias traídas por Bing</t>
+  </si>
+  <si>
+    <t>Se pudo abrir una pagina a partir de la url devuelta por Bing y se comenzó a buscar una expresión regular que realice la búsqueda dentro de la página</t>
+  </si>
+  <si>
+    <t>Prueba y correcciones sobre la expresión regular</t>
+  </si>
+  <si>
+    <t>Robustecimiento del método que realiza la búsqueda para que reciba un recibe en cualquier formato. Se corrigieron errores en la búsqueda</t>
+  </si>
+  <si>
+    <t>Se probó la búsqueda, se realizaron mejoras y correcciones. Agregado soporte para búsquedas que devuelven resultados con cualquier codificación de caracteres ir: utf-8, iso-8859-1, etc.</t>
+  </si>
+  <si>
+    <t>Trabaje junto con Martín en la implementación de algunos servicios, y luego se realizo integración con Facebook</t>
+  </si>
+  <si>
+    <t>Implementación de servicios e integración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserción de los combobox en el wp7 + investigación de nuevas animaciones </t>
+  </si>
+  <si>
+    <t>Modificaciones e inserciones de nuevas imágenes editadas a restantes pantallas</t>
+  </si>
+  <si>
+    <t>Reunión con Javier</t>
+  </si>
+  <si>
+    <t>Registro de horas, fin doc. estimación, seguimiento de proyecto, plan de iteración.</t>
+  </si>
+  <si>
+    <t>Investigación sobre cómo abrir un browser con una url dada en el Windows Pone</t>
+  </si>
+  <si>
+    <t>Rework de bug en la nube con la lógica de Facebook y la base de datos</t>
+  </si>
+  <si>
+    <t>Se sigue trabajando sobre la arquitectura del servidor y con el caso de uso anterior. Además de cargar datos de la base</t>
   </si>
 </sst>
 </file>
@@ -983,24 +977,24 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:gapWidth val="100"/>
-        <c:axId val="91828608"/>
-        <c:axId val="91830144"/>
+        <c:axId val="59857536"/>
+        <c:axId val="59871616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91828608"/>
+        <c:axId val="59857536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91830144"/>
+        <c:crossAx val="59871616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91830144"/>
+        <c:axId val="59871616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1002,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91828608"/>
+        <c:crossAx val="59857536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,7 +1024,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1359,8 +1353,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1389,7 +1383,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
@@ -1427,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
@@ -1444,13 +1438,13 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
@@ -1462,13 +1456,13 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
@@ -1479,13 +1473,13 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="19">
         <v>1.5</v>
@@ -1497,13 +1491,13 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
@@ -1515,13 +1509,13 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -1532,13 +1526,13 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -1549,19 +1543,19 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="D12" s="17">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
@@ -1569,19 +1563,19 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="D13" s="19">
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
@@ -1589,13 +1583,13 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -1607,13 +1601,13 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D15" s="19">
         <v>2</v>
@@ -1686,8 +1680,8 @@
   <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1752,13 +1746,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D5" s="17">
         <v>1.5</v>
@@ -1769,13 +1763,13 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -1787,13 +1781,13 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
@@ -1805,13 +1799,13 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D8" s="19">
         <v>5</v>
@@ -1823,13 +1817,13 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D9" s="19">
         <v>3</v>
@@ -1841,13 +1835,13 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -1859,13 +1853,13 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -1877,13 +1871,13 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D12" s="19">
         <v>3</v>
@@ -1965,8 +1959,8 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -2027,19 +2021,19 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -2052,19 +2046,19 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="19">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
         <v>65</v>
@@ -2072,19 +2066,19 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="19">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -2092,19 +2086,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2112,19 +2106,19 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" s="19">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -2242,8 +2236,8 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -2308,19 +2302,19 @@
     </row>
     <row r="5" spans="1:11" s="30" customFormat="1">
       <c r="A5" s="28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D5" s="19">
         <v>2</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28" t="s">
@@ -2333,19 +2327,19 @@
     </row>
     <row r="6" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D6" s="19">
         <v>1.5</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>65</v>
@@ -2353,19 +2347,19 @@
     </row>
     <row r="7" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>65</v>
@@ -2373,19 +2367,19 @@
     </row>
     <row r="8" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>65</v>
@@ -2393,19 +2387,19 @@
     </row>
     <row r="9" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D9" s="19">
         <v>2.5</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>65</v>
@@ -2413,19 +2407,19 @@
     </row>
     <row r="10" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D10" s="19">
         <v>2</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>65</v>
@@ -2433,19 +2427,19 @@
     </row>
     <row r="11" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D11" s="19">
         <v>2</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>65</v>
@@ -2453,19 +2447,19 @@
     </row>
     <row r="12" spans="1:11" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D12" s="19">
         <v>10</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>65</v>
@@ -2546,7 +2540,7 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B45"/>
     </sheetView>
   </sheetViews>
@@ -2993,7 +2987,7 @@
   <sheetPr codeName="Hoja14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3013,7 +3007,7 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3049,8 +3043,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3111,19 +3105,19 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -3136,19 +3130,19 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3156,19 +3150,19 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" s="21">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -3176,19 +3170,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -3196,19 +3190,19 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -3216,19 +3210,19 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -3236,19 +3230,19 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="19">
         <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
@@ -3369,8 +3363,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3432,13 +3426,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D5" s="19">
         <v>2</v>
@@ -3455,13 +3449,13 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D6" s="19">
         <v>3</v>
@@ -3473,13 +3467,13 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D7" s="19">
         <v>3</v>
@@ -3490,13 +3484,13 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D8" s="19">
         <v>5</v>
@@ -3612,8 +3606,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3675,19 +3669,19 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D5" s="19">
         <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>65</v>
@@ -3700,19 +3694,19 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D6" s="19">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3720,19 +3714,19 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D7" s="19">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -3740,19 +3734,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D8" s="19">
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -3760,19 +3754,19 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D9" s="19">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -3859,8 +3853,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3924,19 +3918,19 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D5" s="19">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -3949,19 +3943,19 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
         <v>65</v>
@@ -3969,19 +3963,19 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -3989,19 +3983,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="D8" s="19">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
@@ -4115,8 +4109,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4179,19 +4173,19 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>65</v>
@@ -4204,13 +4198,13 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -4222,13 +4216,13 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -4240,19 +4234,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="19">
         <v>1.5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -4260,19 +4254,19 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="19">
         <v>1.5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -4280,19 +4274,19 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -4300,19 +4294,19 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D11" s="19">
         <v>3</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
         <v>65</v>
@@ -4320,19 +4314,19 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D12" s="19">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -4410,8 +4404,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4480,16 +4474,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -4499,39 +4493,39 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D6" s="19">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D7" s="19">
         <v>2.5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -4539,19 +4533,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
@@ -4559,19 +4553,19 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D9" s="19">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -4666,8 +4660,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4732,19 +4726,19 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>65</v>
@@ -4757,19 +4751,19 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="29" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -4777,19 +4771,19 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -4797,19 +4791,19 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -4817,19 +4811,19 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -4837,19 +4831,19 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -4857,19 +4851,19 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D11" s="35">
         <v>2</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>65</v>
@@ -4969,8 +4963,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5036,16 +5030,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D5" s="19">
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
@@ -5058,19 +5052,19 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
         <v>65</v>
@@ -5078,17 +5072,17 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="19">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -5096,17 +5090,17 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
